--- a/Data and graphs/Data.xlsx
+++ b/Data and graphs/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5897A-F220-4165-B260-0894616E474F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995972E-A14D-4CA9-A2CC-83DBB38A910A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="4" activeTab="8" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="3" activeTab="6" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Emergence_NG" sheetId="1" r:id="rId1"/>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F581FF5A-4BBE-4A75-A172-EA481FFA2F12}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,32 +1985,32 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>275.10500000000002</v>
+        <v>143.07</v>
       </c>
       <c r="C2">
-        <v>3.9203299999999999</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="B3">
-        <v>309.8</v>
+        <v>178.66</v>
       </c>
       <c r="C3">
-        <v>28.3</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="B4">
-        <v>301.95</v>
+        <v>149.32</v>
       </c>
       <c r="C4">
-        <v>25.44</v>
+        <v>13.44</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2023,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E29042-B0FF-44C4-975C-91924A14DD01}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,18 +2258,18 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>256.87315999999998</v>
+        <v>172.26</v>
       </c>
       <c r="C2">
-        <v>3.5458400000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>253.32731999999999</v>
+        <v>162.35999999999999</v>
       </c>
       <c r="E2">
         <f>B2+C2</f>
-        <v>260.41899999999998</v>
+        <v>182.16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,18 +2277,18 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>293.96300000000002</v>
+        <v>247.12</v>
       </c>
       <c r="C3">
-        <v>3.91073</v>
+        <v>13.01</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" si="0">B3-C3</f>
-        <v>290.05227000000002</v>
+        <v>234.11</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="1">B3+C3</f>
-        <v>297.87373000000002</v>
+        <v>260.13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2296,18 +2296,18 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>285.78899999999999</v>
+        <v>199.24</v>
       </c>
       <c r="C4">
-        <v>3.8931900000000002</v>
+        <v>11.54</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>281.89580999999998</v>
+        <v>187.70000000000002</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>289.68218999999999</v>
+        <v>210.78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2315,18 +2315,18 @@
         <v>0.05</v>
       </c>
       <c r="B5">
-        <v>288.82</v>
+        <v>171.76</v>
       </c>
       <c r="C5">
-        <v>12.03321</v>
+        <v>11.19</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>276.78679</v>
+        <v>160.57</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>300.85320999999999</v>
+        <v>182.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,18 +2334,18 @@
         <v>0.1</v>
       </c>
       <c r="B6">
-        <v>280.39400000000001</v>
+        <v>125.91</v>
       </c>
       <c r="C6">
-        <v>3.8974600000000001</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>276.49653999999998</v>
+        <v>117.38</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>284.29146000000003</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,18 +2353,18 @@
         <v>0.2</v>
       </c>
       <c r="B7">
-        <v>266.27300000000002</v>
+        <v>115.84</v>
       </c>
       <c r="C7">
-        <v>3.77827</v>
+        <v>7.69</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>262.49473</v>
+        <v>108.15</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>270.05127000000005</v>
+        <v>123.53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2372,18 +2372,18 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>246.26578000000001</v>
+        <v>73.06</v>
       </c>
       <c r="C8">
-        <v>3.6258900000000001</v>
+        <v>4.13</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>242.63989000000001</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>249.89167</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2391,18 +2391,18 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>220.44259</v>
+        <v>47.375</v>
       </c>
       <c r="C9">
-        <v>3.5323899999999999</v>
+        <v>2.41</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>216.9102</v>
+        <v>44.965000000000003</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>223.97497999999999</v>
+        <v>49.784999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Data and graphs/Data.xlsx
+++ b/Data and graphs/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995972E-A14D-4CA9-A2CC-83DBB38A910A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C96EC-A868-4A61-8BB4-8739B13E8203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="3" activeTab="6" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
   </bookViews>
@@ -1964,7 +1964,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,10 +2007,10 @@
         <v>5000</v>
       </c>
       <c r="B4">
-        <v>149.32</v>
+        <v>152.54</v>
       </c>
       <c r="C4">
-        <v>13.44</v>
+        <v>13.98</v>
       </c>
     </row>
   </sheetData>

--- a/Data and graphs/Data.xlsx
+++ b/Data and graphs/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\Data and graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C96EC-A868-4A61-8BB4-8739B13E8203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1EB1C-8F3F-419C-A971-055109250057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="3" activeTab="6" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
   </bookViews>
@@ -2007,10 +2007,10 @@
         <v>5000</v>
       </c>
       <c r="B4">
-        <v>152.54</v>
+        <v>151.11000000000001</v>
       </c>
       <c r="C4">
-        <v>13.98</v>
+        <v>10.28</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2231,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data and graphs/Data.xlsx
+++ b/Data and graphs/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\Data and graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1EB1C-8F3F-419C-A971-055109250057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B40B64-7A30-4378-A301-F6A37E3C3CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="3" activeTab="6" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="2" xr2:uid="{6208A0E9-EA4A-4C97-801B-F788F66CBB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Emergence_NG" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>Early</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
     <t>Bimodal</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>ymaxEL</t>
+  </si>
+  <si>
+    <t>Delayed-dawn</t>
+  </si>
+  <si>
+    <t>Immediate</t>
   </si>
 </sst>
 </file>
@@ -146,9 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +467,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +491,10 @@
         <v>0.1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -504,10 +505,10 @@
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -518,13 +519,13 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -549,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -563,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -577,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -591,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -605,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -616,10 +617,10 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -630,10 +631,10 @@
         <v>0.2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -644,10 +645,10 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -661,7 +662,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -675,7 +676,7 @@
         <v>0.15</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>3.5</v>
@@ -689,7 +690,7 @@
         <v>0.61</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>4.9000000000000004</v>
@@ -703,7 +704,7 @@
         <v>0.68</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>4.7</v>
@@ -717,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -731,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -745,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -759,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -773,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -787,7 +788,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -801,7 +802,7 @@
         <v>0.85</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>3.5</v>
@@ -815,7 +816,7 @@
         <v>0.39</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>4.9000000000000004</v>
@@ -829,7 +830,7 @@
         <v>0.32</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>4.7</v>
@@ -843,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -857,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -872,15 +873,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92860D97-FB49-4DA3-8E4A-5679435D5B31}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -897,7 +898,7 @@
         <v>0.17</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -908,7 +909,7 @@
         <v>0.3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,7 +920,7 @@
         <v>0.44</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -930,7 +931,7 @@
         <v>0.63</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -941,7 +942,7 @@
         <v>0.8</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,7 +953,7 @@
         <v>0.99</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -963,7 +964,7 @@
         <v>0.99</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -974,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -985,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -996,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,7 +1008,7 @@
         <v>0.97</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,7 +1019,7 @@
         <v>0.43</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,7 +1030,7 @@
         <v>0.01</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1040,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1051,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1062,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1073,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1117,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1128,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1139,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1150,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1161,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,7 +1173,7 @@
         <v>0.03</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1183,7 +1184,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1194,7 +1195,7 @@
         <v>0.99</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1205,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1216,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1227,7 +1228,7 @@
         <v>0.83</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1238,7 +1239,7 @@
         <v>0.7</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,7 +1250,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1260,7 +1261,7 @@
         <v>0.37</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1271,7 +1272,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1282,7 +1283,7 @@
         <v>0.01</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1293,7 +1294,7 @@
         <v>0.01</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1304,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1315,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1326,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1337,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1348,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1359,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1370,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1381,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1391,17 +1392,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599BC85A-4B5C-4CEF-8191-0A0E987080DE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1410,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>4.8280430000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.01</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>2.3748680000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.02</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>2.5514700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.05</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>2.7129319999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.1</v>
       </c>
@@ -1487,8 +1488,9 @@
         <f t="shared" si="0"/>
         <v>4.2708310000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>4.6647619999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>4.9355849999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1532,9 +1534,22 @@
         <f t="shared" si="0"/>
         <v>1.7058719999999998</v>
       </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1550,16 +1565,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,19 +1669,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1830,16 +1845,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,18 +1978,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F581FF5A-4BBE-4A75-A172-EA481FFA2F12}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -2007,10 +2022,10 @@
         <v>5000</v>
       </c>
       <c r="B4">
-        <v>151.11000000000001</v>
+        <v>150.69</v>
       </c>
       <c r="C4">
-        <v>10.28</v>
+        <v>9.73</v>
       </c>
     </row>
   </sheetData>
@@ -2030,19 +2045,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2238,19 +2253,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
